--- a/tables/results.xlsx
+++ b/tables/results.xlsx
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1775,64 +1775,6 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B46">
-        <f t="shared" ref="B46:G46" si="1">B45/$H$45</f>
-        <v>0.29394812680115273</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="1"/>
-        <v>0.23559077809798271</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="1"/>
-        <v>0.13976945244956773</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>0.1127521613832853</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="1"/>
-        <v>7.492795389048991E-2</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>0.14229106628242075</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B47">
-        <f>B46</f>
-        <v>0.29394812680115273</v>
-      </c>
-      <c r="C47">
-        <f>B47+C46</f>
-        <v>0.52953890489913547</v>
-      </c>
-      <c r="D47">
-        <f>C47+D46</f>
-        <v>0.6693083573487032</v>
-      </c>
-      <c r="E47">
-        <f>D47+E46</f>
-        <v>0.78206051873198845</v>
-      </c>
-      <c r="F47">
-        <f>E47+F46</f>
-        <v>0.85698847262247835</v>
-      </c>
-      <c r="G47">
-        <f>F47+G46</f>
-        <v>0.99927953890489907</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B48">
-        <f>B45+C45</f>
-        <v>1470</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
